--- a/changes/scar-stocks.xlsx
+++ b/changes/scar-stocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{799A3328-7273-4FAD-A480-744E79A72087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364F2F4A-3AC9-4F9D-8F1C-394A5A4A0BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{605FF473-DEE6-48F8-84F5-1ADFC534E7D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{605FF473-DEE6-48F8-84F5-1ADFC534E7D0}"/>
   </bookViews>
   <sheets>
     <sheet name="scar-stocks" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>buffer</t>
-  </si>
-  <si>
-    <t>old</t>
   </si>
   <si>
     <t>new</t>
@@ -255,9 +252,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -295,7 +292,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -401,7 +398,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,113 +548,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DFBC53-4C18-48B7-B04F-4DA1626DC4B1}">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.85546875" customWidth="1"/>
     <col min="2" max="2" width="49.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
-        <f>_xlfn.CONCAT(P2,"old")</f>
-        <v>ergonomicsold</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:M2" si="0">_xlfn.CONCAT(Q2,"old")</f>
-        <v>weightold</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" si="0"/>
-        <v>horizontal_recoilold</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" si="0"/>
-        <v>vertical_recoilold</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" si="0"/>
-        <v>magazine_capacityold</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" si="0"/>
-        <v>bullet_deviationold</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" si="0"/>
-        <v>bullet_damageold</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" si="0"/>
-        <v>bullet_velocityold</v>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" si="0"/>
-        <v>buck_bullet_deviationold</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" si="0"/>
-        <v>fire_rateold</v>
-      </c>
-      <c r="M2" t="str">
-        <f t="shared" si="0"/>
-        <v>priceold</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="R2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="S2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="T2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="V2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="W2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="X2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -668,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -687,35 +636,10 @@
       </c>
       <c r="N3">
         <f>C3-(D3*20)-(E3*0.8)-(F3*0.6)-(H3*5)</f>
-        <v>-0.8</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <f>P3-(Q3*20)-(R3*0.8)-(S3*0.6)-(U3*5)</f>
         <v>-1.4000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -723,16 +647,16 @@
         <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2</v>
+        <v>0.51</v>
       </c>
       <c r="E4" s="1">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -744,36 +668,11 @@
         <v>600</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N32" si="1">C4-(D4*20)-(E4*0.8)-(F4*0.6)-(H4*5)</f>
-        <v>17.2</v>
-      </c>
-      <c r="P4" s="1">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="R4" s="1">
-        <v>-2</v>
-      </c>
-      <c r="S4" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1">
-        <v>600</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" ref="AA4:AA32" si="2">P4-(Q4*20)-(R4*0.8)-(S4*0.6)-(U4*5)</f>
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N4:N32" si="0">C4-(D4*20)-(E4*0.8)-(F4*0.6)-(H4*5)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -781,10 +680,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -802,36 +701,11 @@
         <v>300</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="P5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1">
-        <v>300</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-2.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -839,16 +713,16 @@
         <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D6" s="1">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
@@ -862,38 +736,11 @@
         <v>450</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
-        <v>-13.5</v>
-      </c>
-      <c r="P6" s="1">
-        <v>-5</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="R6" s="1">
-        <v>2</v>
-      </c>
-      <c r="S6" s="1">
-        <v>2</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1">
-        <v>450</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="2"/>
-        <v>-9.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-9.8999999999999986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -904,10 +751,14 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -918,36 +769,11 @@
         <v>1500</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1">
-        <v>1500</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-0.60000000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -962,26 +788,11 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -989,39 +800,20 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
-      </c>
-      <c r="F9">
-        <v>-2</v>
+        <v>0.16</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="2"/>
-        <v>0.19999999999999973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1029,55 +821,32 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="E10">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="F10">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>13.8</v>
-      </c>
-      <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10">
-        <v>0.16</v>
-      </c>
-      <c r="R10">
-        <v>-9</v>
-      </c>
-      <c r="S10">
-        <v>-12</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="2"/>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1085,39 +854,20 @@
         <v>39</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03</v>
-      </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
+        <v>0.11</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
-        <v>-0.20000000000000007</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0.09</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="2"/>
-        <v>-1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1125,39 +875,20 @@
         <v>34</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>0.04</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
-        <v>4.8</v>
-      </c>
-      <c r="P13">
-        <v>4</v>
-      </c>
-      <c r="Q13">
-        <v>0.04</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1165,55 +896,32 @@
         <v>34</v>
       </c>
       <c r="C14">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="E14">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F14">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="M14">
         <v>1000</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
-        <v>17.899999999999999</v>
-      </c>
-      <c r="P14">
-        <v>10</v>
-      </c>
-      <c r="Q14">
-        <v>0.13</v>
-      </c>
-      <c r="R14">
-        <v>-10</v>
-      </c>
-      <c r="S14">
-        <v>-7</v>
-      </c>
-      <c r="Z14">
-        <v>1000</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="2"/>
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1226,34 +934,15 @@
       <c r="D16">
         <v>0.06</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>-2</v>
-      </c>
       <c r="M16">
         <v>600</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0.06</v>
-      </c>
-      <c r="Z16">
-        <v>600</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>-1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1261,45 +950,26 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E17">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="M17">
         <v>400</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
-        <v>16.8</v>
-      </c>
-      <c r="P17">
-        <v>11</v>
-      </c>
-      <c r="Q17">
-        <v>0.09</v>
-      </c>
-      <c r="R17">
-        <v>-5</v>
-      </c>
-      <c r="S17">
-        <v>-5</v>
-      </c>
-      <c r="Z17">
-        <v>400</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>16.2</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1307,55 +977,32 @@
         <v>41</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E18">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="M18">
         <v>400</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>16.8</v>
-      </c>
-      <c r="P18">
-        <v>11</v>
-      </c>
-      <c r="Q18">
-        <v>0.09</v>
-      </c>
-      <c r="R18">
-        <v>-5</v>
-      </c>
-      <c r="S18">
-        <v>-5</v>
-      </c>
-      <c r="Z18">
-        <v>400</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1365,22 +1012,15 @@
       <c r="C20">
         <v>2</v>
       </c>
+      <c r="D20">
+        <v>0.02</v>
+      </c>
       <c r="N20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>0.02</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1391,24 +1031,14 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
-      <c r="P21">
-        <v>4</v>
-      </c>
-      <c r="Q21">
-        <v>0.04</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1419,36 +1049,20 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="E22">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F22">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
-        <v>10.8</v>
-      </c>
-      <c r="P22">
-        <v>7</v>
-      </c>
-      <c r="Q22">
-        <v>0.1</v>
-      </c>
-      <c r="R22">
-        <v>-7</v>
-      </c>
-      <c r="S22">
-        <v>-8</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="2"/>
-        <v>15.400000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>14.600000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1456,37 +1070,23 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="2"/>
-        <v>-1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>43</v>
       </c>
@@ -1494,7 +1094,7 @@
         <v>17</v>
       </c>
       <c r="D25">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E25">
         <v>-11</v>
@@ -1524,260 +1124,123 @@
         <v>1400</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
-        <v>24.6</v>
-      </c>
-      <c r="P25">
-        <v>17</v>
-      </c>
-      <c r="Q25">
-        <v>0.36</v>
-      </c>
-      <c r="R25">
-        <v>-11</v>
-      </c>
-      <c r="S25">
-        <v>-10</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>1400</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="2"/>
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C27">
         <f>C3+C9+C10</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:M27" si="3">D3+D9+D10</f>
-        <v>0.24000000000000002</v>
+        <f t="shared" ref="D27:M27" si="1">D3+D9+D10</f>
+        <v>0.42000000000000004</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-9</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-12</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
-        <v>18.599999999999998</v>
-      </c>
-      <c r="P27">
-        <f>P3+P9+P10</f>
-        <v>10</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" ref="Q27:Z27" si="4">Q3+Q9+Q10</f>
-        <v>0.37</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="4"/>
-        <v>-9</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="4"/>
-        <v>-12</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28">
         <f>C4</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:M28" si="5">D4</f>
-        <v>0.2</v>
+        <f t="shared" ref="D28:M28" si="2">D4</f>
+        <v>0.51</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>-3</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>-3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
-        <v>17.2</v>
-      </c>
-      <c r="P28">
-        <f>P4</f>
-        <v>21</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" ref="Q28:Z28" si="6">Q4</f>
-        <v>0.48</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="2"/>
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -1786,399 +1249,207 @@
         <v>13</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:M29" si="7">D5+D12+D13+D14</f>
-        <v>0.19</v>
+        <f t="shared" ref="D29:M29" si="3">D5+D12+D13+D14</f>
+        <v>0.38</v>
       </c>
       <c r="E29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
       <c r="F29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
       <c r="G29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1300</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
-        <v>21.4</v>
-      </c>
-      <c r="P29">
-        <f>P5+P12+P13+P14</f>
-        <v>13</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" ref="Q29:Z29" si="8">Q5+Q12+Q13+Q14</f>
-        <v>0.33</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="8"/>
-        <v>-10</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="8"/>
-        <v>-7</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="8"/>
-        <v>1300</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="2"/>
-        <v>18.599999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>47</v>
       </c>
       <c r="C30">
         <f>C5+C12+C13+C16+C17</f>
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:M30" si="9">D5+D12+D13+D16+D17</f>
-        <v>0.26</v>
+        <f t="shared" ref="D30:M30" si="4">D5+D12+D13+D16+D17</f>
+        <v>0.37</v>
       </c>
       <c r="E30">
-        <f t="shared" si="9"/>
-        <v>-11</v>
+        <f t="shared" si="4"/>
+        <v>-5</v>
       </c>
       <c r="F30">
-        <f t="shared" si="9"/>
-        <v>-2</v>
+        <f t="shared" si="4"/>
+        <v>-5</v>
       </c>
       <c r="G30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1300</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
-        <v>20.3</v>
-      </c>
-      <c r="P30">
-        <f>P5+P12+P13+P16+P17</f>
-        <v>14</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" ref="Q30:Z30" si="10">Q5+Q12+Q13+Q16+Q17</f>
-        <v>0.35</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="10"/>
-        <v>-5</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="10"/>
-        <v>-5</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="10"/>
-        <v>1300</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>48</v>
       </c>
       <c r="C31">
         <f>C7+C20+C21+C22+C23</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:M31" si="11">D7+D20+D21+D22+D23</f>
-        <v>0.16</v>
+        <f t="shared" ref="D31:M31" si="5">D7+D20+D21+D22+D23</f>
+        <v>0.33</v>
       </c>
       <c r="E31">
-        <f t="shared" si="11"/>
-        <v>-4</v>
+        <f t="shared" si="5"/>
+        <v>-7</v>
       </c>
       <c r="F31">
-        <f t="shared" si="11"/>
-        <v>-3</v>
+        <f t="shared" si="5"/>
+        <v>-7</v>
       </c>
       <c r="G31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
-        <v>16.8</v>
-      </c>
-      <c r="P31">
-        <f>P7+P20+P21+P22+P23</f>
-        <v>14</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" ref="Q31:Z31" si="12">Q7+Q20+Q21+Q22+Q23</f>
-        <v>0.31000000000000005</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="12"/>
-        <v>-7</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="12"/>
-        <v>-8</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="12"/>
-        <v>1500</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="2"/>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>49</v>
       </c>
       <c r="C32">
         <f>C6+C25</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:M32" si="13">D6+D25</f>
-        <v>0.51</v>
+        <f t="shared" ref="D32:M32" si="6">D6+D25</f>
+        <v>0.43</v>
       </c>
       <c r="E32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
       <c r="F32">
-        <f t="shared" si="13"/>
-        <v>-6</v>
+        <f t="shared" si="6"/>
+        <v>-8</v>
       </c>
       <c r="G32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1850</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
-        <v>11.1</v>
-      </c>
-      <c r="P32">
-        <f>P6+P25</f>
-        <v>12</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" ref="Q32:Z32" si="14">Q6+Q25</f>
-        <v>0.42</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="14"/>
-        <v>-9</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="14"/>
-        <v>-8</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="14"/>
-        <v>1850</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="2"/>
-        <v>15.100000000000001</v>
+        <f t="shared" si="0"/>
+        <v>14.900000000000002</v>
       </c>
     </row>
   </sheetData>
